--- a/Assets/StreamingAssets/Excel/LightSourceInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/LightSourceInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRPG\Assets\StreamingAssets\Json\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BCA2C0-13B9-4050-B74C-256C4BCE77B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83099781-2258-4FC3-A04B-7C63DA7A26B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7332" yWindow="4032" windowWidth="20868" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11652" yWindow="7044" windowWidth="20868" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,21 +63,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引,不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>发光半径
-(最小为1:自发光
 (最大不应当超过可接受光照范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引,不填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +435,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -459,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -487,13 +486,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>

--- a/Assets/StreamingAssets/Excel/LightSourceInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/LightSourceInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83099781-2258-4FC3-A04B-7C63DA7A26B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF6A92-8B4F-4180-A8B9-74F50652EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11652" yWindow="7044" windowWidth="20868" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4935" windowWidth="24270" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,22 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -510,26 +510,72 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
